--- a/biology/Zoologie/Cuora_mouhotii/Cuora_mouhotii.xlsx
+++ b/biology/Zoologie/Cuora_mouhotii/Cuora_mouhotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora mouhotii ou Tortue-boîte à trois carènes est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora mouhotii ou Tortue-boîte à trois carènes est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de tortue terrestre se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de tortue terrestre se rencontre :
 en Chine dans les provinces du Guangdong, du Guangxi, du Hainan, du Hunan et du Yunnan ;
 en Inde dans les États d'Arunachal Pradesh, en Assam et au Meghalaya ;
 en Birmanie ;
@@ -549,11 +563,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa dossière (carapace) mesure en moyenne entre 13 et 15 cm et peut atteindre jusqu'à 18 cm. Elle se caractérise par une marginale postérieure dentelée et trois carènes dorsales.
 Comme toutes les tortues-boîtes, elle peut se rétracter dans sa carapace lorsqu'elle est menacée.
-Elle pond de 1 à 7 œufs[2]. A la naissance, après une centaine de jours d'incubation, les petits mesurent entre 3,5 et 4 cm de long[3].
+Elle pond de 1 à 7 œufs. A la naissance, après une centaine de jours d'incubation, les petits mesurent entre 3,5 et 4 cm de long.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (14 juin 2011)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (14 juin 2011) :
 Cuora mouhotii mouhotii (Gray, 1862)
 Cuora mouhotii obsti Fritz, Andreas &amp; Lehr, 1998</t>
         </is>
@@ -614,7 +632,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1862 : Notice of a new species of Cyclemys from the Lao Mountains, in Siam. Annals and Magazine of Natural History, ser. 3, vol. 10, p. 157 (texte intégral).
 Fritz, Andreas &amp; Lehr, 1998 : Eine neue Unterart der Dreikiel-Scharnierschildkröte, Pyxidea mouhotti (Gray, 1862) (Reptilia: Testudines: Bataguridae). Zoologische Abhandlungen, Staatliches Museum für Tierkunde in Dresden, vol. 50, no 3, p. 33-43.</t>
